--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cadm3</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H2">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I2">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J2">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="N2">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="O2">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="P2">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="Q2">
-        <v>17.472048881764</v>
+        <v>5.179346051912109</v>
       </c>
       <c r="R2">
-        <v>157.248439935876</v>
+        <v>46.61411446720899</v>
       </c>
       <c r="S2">
-        <v>0.1009397888023725</v>
+        <v>0.05037154320776548</v>
       </c>
       <c r="T2">
-        <v>0.1009397888023725</v>
+        <v>0.05037154320776549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H3">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I3">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J3">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>18.949474</v>
       </c>
       <c r="O3">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="P3">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="Q3">
-        <v>26.40266848069734</v>
+        <v>14.37518256774689</v>
       </c>
       <c r="R3">
-        <v>237.624016326276</v>
+        <v>129.376643109722</v>
       </c>
       <c r="S3">
-        <v>0.1525339013355357</v>
+        <v>0.1398053195467517</v>
       </c>
       <c r="T3">
-        <v>0.1525339013355357</v>
+        <v>0.1398053195467518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H4">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I4">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J4">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="N4">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="O4">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="P4">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="Q4">
-        <v>0.06090895465666666</v>
+        <v>0.03179772443866666</v>
       </c>
       <c r="R4">
-        <v>0.5481805919099999</v>
+        <v>0.286179519948</v>
       </c>
       <c r="S4">
-        <v>0.0003518841471210728</v>
+        <v>0.0003092476220776178</v>
       </c>
       <c r="T4">
-        <v>0.0003518841471210728</v>
+        <v>0.0003092476220776179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H5">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I5">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J5">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="N5">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="O5">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="P5">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="Q5">
-        <v>8.690308240236</v>
+        <v>3.444424245899777</v>
       </c>
       <c r="R5">
-        <v>78.21277416212399</v>
+        <v>30.999818213098</v>
       </c>
       <c r="S5">
-        <v>0.05020578206557631</v>
+        <v>0.03349862376238842</v>
       </c>
       <c r="T5">
-        <v>0.05020578206557632</v>
+        <v>0.03349862376238844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -788,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H6">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I6">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J6">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,40 +806,40 @@
         <v>0.020391</v>
       </c>
       <c r="N6">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="O6">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="P6">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="Q6">
-        <v>0.08523352357800001</v>
+        <v>0.04640619804099999</v>
       </c>
       <c r="R6">
-        <v>0.7671017122020001</v>
+        <v>0.417655782369</v>
       </c>
       <c r="S6">
-        <v>0.000492412419806414</v>
+        <v>0.0004513218051663831</v>
       </c>
       <c r="T6">
-        <v>0.000492412419806414</v>
+        <v>0.0004513218051663832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.179958</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="H7">
-        <v>12.539874</v>
+        <v>18.949474</v>
       </c>
       <c r="I7">
-        <v>0.3177102277270478</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J7">
-        <v>0.3177102277270478</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5460566666666667</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="N7">
-        <v>1.63817</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="O7">
-        <v>0.0415046725154988</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="P7">
-        <v>0.0415046725154988</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="Q7">
-        <v>2.282493932286667</v>
+        <v>14.37518256774689</v>
       </c>
       <c r="R7">
-        <v>20.54244539058</v>
+        <v>129.376643109722</v>
       </c>
       <c r="S7">
-        <v>0.01318645895663566</v>
+        <v>0.1398053195467517</v>
       </c>
       <c r="T7">
-        <v>0.01318645895663566</v>
+        <v>0.1398053195467518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +915,10 @@
         <v>18.949474</v>
       </c>
       <c r="I8">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J8">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.179958</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="N8">
-        <v>12.539874</v>
+        <v>18.949474</v>
       </c>
       <c r="O8">
-        <v>0.3177102277270478</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="P8">
-        <v>0.3177102277270478</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="Q8">
-        <v>26.40266848069734</v>
+        <v>39.89806276407512</v>
       </c>
       <c r="R8">
-        <v>237.624016326276</v>
+        <v>359.0825648766761</v>
       </c>
       <c r="S8">
-        <v>0.1525339013355357</v>
+        <v>0.388027170280464</v>
       </c>
       <c r="T8">
-        <v>0.1525339013355357</v>
+        <v>0.388027170280464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +977,40 @@
         <v>18.949474</v>
       </c>
       <c r="I9">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J9">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.316491333333334</v>
+        <v>0.013972</v>
       </c>
       <c r="N9">
-        <v>18.949474</v>
+        <v>0.041916</v>
       </c>
       <c r="O9">
-        <v>0.4801038431365237</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="P9">
-        <v>0.4801038431365237</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="Q9">
-        <v>39.89806276407512</v>
+        <v>0.08825401690933335</v>
       </c>
       <c r="R9">
-        <v>359.0825648766761</v>
+        <v>0.7942861521840001</v>
       </c>
       <c r="S9">
-        <v>0.2304997001944597</v>
+        <v>0.0008583112581106962</v>
       </c>
       <c r="T9">
-        <v>0.2304997001944597</v>
+        <v>0.0008583112581106962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1018,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1039,40 @@
         <v>18.949474</v>
       </c>
       <c r="I10">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J10">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01457166666666667</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="N10">
-        <v>0.043715</v>
+        <v>4.540466</v>
       </c>
       <c r="O10">
-        <v>0.001107563170498196</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="P10">
-        <v>0.001107563170498196</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="Q10">
-        <v>0.09204180621222223</v>
+        <v>9.559938046098225</v>
       </c>
       <c r="R10">
-        <v>0.8283762559100001</v>
+        <v>86.03944241488402</v>
       </c>
       <c r="S10">
-        <v>0.0005317453346726565</v>
+        <v>0.09297483263834432</v>
       </c>
       <c r="T10">
-        <v>0.0005317453346726566</v>
+        <v>0.09297483263834433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1080,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,164 +1101,164 @@
         <v>18.949474</v>
       </c>
       <c r="I11">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J11">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.079042</v>
+        <v>0.020391</v>
       </c>
       <c r="N11">
-        <v>6.237126</v>
+        <v>0.061173</v>
       </c>
       <c r="O11">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="P11">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="Q11">
-        <v>13.132250774636</v>
+        <v>0.128799574778</v>
       </c>
       <c r="R11">
-        <v>118.190256971724</v>
+        <v>1.159196173002</v>
       </c>
       <c r="S11">
-        <v>0.07586784060998576</v>
+        <v>0.00125263561867558</v>
       </c>
       <c r="T11">
-        <v>0.07586784060998578</v>
+        <v>0.00125263561867558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.316491333333334</v>
+        <v>0.013972</v>
       </c>
       <c r="H12">
-        <v>18.949474</v>
+        <v>0.041916</v>
       </c>
       <c r="I12">
-        <v>0.4801038431365237</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J12">
-        <v>0.4801038431365237</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.020391</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="N12">
-        <v>0.06117300000000001</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="O12">
-        <v>0.001549879030741991</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="P12">
-        <v>0.001549879030741991</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="Q12">
-        <v>0.128799574778</v>
+        <v>0.03179772443866666</v>
       </c>
       <c r="R12">
-        <v>1.159196173002</v>
+        <v>0.286179519948</v>
       </c>
       <c r="S12">
-        <v>0.0007441028790559402</v>
+        <v>0.0003092476220776178</v>
       </c>
       <c r="T12">
-        <v>0.0007441028790559402</v>
+        <v>0.0003092476220776179</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
+        <v>0.013972</v>
+      </c>
+      <c r="H13">
+        <v>0.041916</v>
+      </c>
+      <c r="I13">
+        <v>0.001377887437812458</v>
+      </c>
+      <c r="J13">
+        <v>0.001377887437812458</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>6.316491333333334</v>
       </c>
-      <c r="H13">
+      <c r="N13">
         <v>18.949474</v>
       </c>
-      <c r="I13">
-        <v>0.4801038431365237</v>
-      </c>
-      <c r="J13">
-        <v>0.4801038431365237</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.63817</v>
-      </c>
       <c r="O13">
-        <v>0.0415046725154988</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="P13">
-        <v>0.0415046725154988</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="Q13">
-        <v>3.44916220250889</v>
+        <v>0.08825401690933335</v>
       </c>
       <c r="R13">
-        <v>31.04245982258001</v>
+        <v>0.7942861521840001</v>
       </c>
       <c r="S13">
-        <v>0.01992655278281382</v>
+        <v>0.0008583112581106962</v>
       </c>
       <c r="T13">
-        <v>0.01992655278281382</v>
+        <v>0.0008583112581106962</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1266,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,46 +1281,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H14">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I14">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J14">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>4.179958</v>
+        <v>0.013972</v>
       </c>
       <c r="N14">
-        <v>12.539874</v>
+        <v>0.041916</v>
       </c>
       <c r="O14">
-        <v>0.3177102277270478</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="P14">
-        <v>0.3177102277270478</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="Q14">
-        <v>0.06090895465666666</v>
+        <v>0.000195216784</v>
       </c>
       <c r="R14">
-        <v>0.5481805919099999</v>
+        <v>0.001756951056</v>
       </c>
       <c r="S14">
-        <v>0.0003518841471210728</v>
+        <v>1.89857379128138E-06</v>
       </c>
       <c r="T14">
-        <v>0.0003518841471210728</v>
+        <v>1.89857379128138E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1328,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H15">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I15">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J15">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.316491333333334</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="N15">
-        <v>18.949474</v>
+        <v>4.540466</v>
       </c>
       <c r="O15">
-        <v>0.4801038431365237</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="P15">
-        <v>0.4801038431365237</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="Q15">
-        <v>0.09204180621222223</v>
+        <v>0.02114646365066667</v>
       </c>
       <c r="R15">
-        <v>0.8283762559100001</v>
+        <v>0.190318172856</v>
       </c>
       <c r="S15">
-        <v>0.0005317453346726565</v>
+        <v>0.0002056591694771496</v>
       </c>
       <c r="T15">
-        <v>0.0005317453346726566</v>
+        <v>0.0002056591694771496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1390,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H16">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I16">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J16">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,60 +1423,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01457166666666667</v>
+        <v>0.020391</v>
       </c>
       <c r="N16">
-        <v>0.043715</v>
+        <v>0.061173</v>
       </c>
       <c r="O16">
-        <v>0.001107563170498196</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="P16">
-        <v>0.001107563170498196</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="Q16">
-        <v>0.0002123334694444444</v>
+        <v>0.000284903052</v>
       </c>
       <c r="R16">
-        <v>0.001911001225</v>
+        <v>0.002564127468</v>
       </c>
       <c r="S16">
-        <v>1.226696176644015E-06</v>
+        <v>2.770814355712755E-06</v>
       </c>
       <c r="T16">
-        <v>1.226696176644016E-06</v>
+        <v>2.770814355712755E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01457166666666667</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H17">
-        <v>0.043715</v>
+        <v>4.540466</v>
       </c>
       <c r="I17">
-        <v>0.001107563170498196</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J17">
-        <v>0.001107563170498196</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,152 +1485,152 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.079042</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="N17">
-        <v>6.237126</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="O17">
-        <v>0.1580238144196896</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="P17">
-        <v>0.1580238144196896</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="Q17">
-        <v>0.03029510701</v>
+        <v>3.444424245899777</v>
       </c>
       <c r="R17">
-        <v>0.27265596309</v>
+        <v>30.999818213098</v>
       </c>
       <c r="S17">
-        <v>0.0001750213569128899</v>
+        <v>0.03349862376238842</v>
       </c>
       <c r="T17">
-        <v>0.0001750213569128899</v>
+        <v>0.03349862376238844</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.01457166666666667</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H18">
-        <v>0.043715</v>
+        <v>4.540466</v>
       </c>
       <c r="I18">
-        <v>0.001107563170498196</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J18">
-        <v>0.001107563170498196</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.020391</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="N18">
-        <v>0.06117300000000001</v>
+        <v>18.949474</v>
       </c>
       <c r="O18">
-        <v>0.001549879030741991</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="P18">
-        <v>0.001549879030741991</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="Q18">
-        <v>0.000297130855</v>
+        <v>9.559938046098225</v>
       </c>
       <c r="R18">
-        <v>0.002674177695</v>
+        <v>86.03944241488402</v>
       </c>
       <c r="S18">
-        <v>1.71658893317727E-06</v>
+        <v>0.09297483263834432</v>
       </c>
       <c r="T18">
-        <v>1.71658893317727E-06</v>
+        <v>0.09297483263834433</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.513488666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.540466</v>
+      </c>
+      <c r="I19">
+        <v>0.1492568723927517</v>
+      </c>
+      <c r="J19">
+        <v>0.1492568723927517</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.01457166666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.043715</v>
-      </c>
-      <c r="I19">
-        <v>0.001107563170498196</v>
-      </c>
-      <c r="J19">
-        <v>0.001107563170498196</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.5460566666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="N19">
-        <v>1.63817</v>
+        <v>0.041916</v>
       </c>
       <c r="O19">
-        <v>0.0415046725154988</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="P19">
-        <v>0.0415046725154988</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="Q19">
-        <v>0.007956955727777777</v>
+        <v>0.02114646365066667</v>
       </c>
       <c r="R19">
-        <v>0.07161260155</v>
+        <v>0.190318172856</v>
       </c>
       <c r="S19">
-        <v>4.596904668175517E-05</v>
+        <v>0.0002056591694771496</v>
       </c>
       <c r="T19">
-        <v>4.596904668175517E-05</v>
+        <v>0.0002056591694771496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1638,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H20">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I20">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J20">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.179958</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="N20">
-        <v>12.539874</v>
+        <v>4.540466</v>
       </c>
       <c r="O20">
-        <v>0.3177102277270478</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="P20">
-        <v>0.3177102277270478</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="Q20">
-        <v>8.690308240236</v>
+        <v>2.290647944128445</v>
       </c>
       <c r="R20">
-        <v>78.21277416212399</v>
+        <v>20.615831497156</v>
       </c>
       <c r="S20">
-        <v>0.05020578206557631</v>
+        <v>0.02227761395646616</v>
       </c>
       <c r="T20">
-        <v>0.05020578206557632</v>
+        <v>0.02227761395646616</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1700,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,140 +1715,140 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H21">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I21">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J21">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>6.316491333333334</v>
+        <v>0.020391</v>
       </c>
       <c r="N21">
-        <v>18.949474</v>
+        <v>0.061173</v>
       </c>
       <c r="O21">
-        <v>0.4801038431365237</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="P21">
-        <v>0.4801038431365237</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="Q21">
-        <v>13.132250774636</v>
+        <v>0.030861547402</v>
       </c>
       <c r="R21">
-        <v>118.190256971724</v>
+        <v>0.277753926618</v>
       </c>
       <c r="S21">
-        <v>0.07586784060998576</v>
+        <v>0.0003001428660756196</v>
       </c>
       <c r="T21">
-        <v>0.07586784060998578</v>
+        <v>0.0003001428660756197</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>2.079042</v>
+        <v>0.020391</v>
       </c>
       <c r="H22">
-        <v>6.237126</v>
+        <v>0.061173</v>
       </c>
       <c r="I22">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J22">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01457166666666667</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="N22">
-        <v>0.043715</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="O22">
-        <v>0.001107563170498196</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="P22">
-        <v>0.001107563170498196</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="Q22">
-        <v>0.03029510701</v>
+        <v>0.04640619804099999</v>
       </c>
       <c r="R22">
-        <v>0.27265596309</v>
+        <v>0.417655782369</v>
       </c>
       <c r="S22">
-        <v>0.0001750213569128899</v>
+        <v>0.0004513218051663831</v>
       </c>
       <c r="T22">
-        <v>0.0001750213569128899</v>
+        <v>0.0004513218051663832</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>2.079042</v>
+        <v>0.020391</v>
       </c>
       <c r="H23">
-        <v>6.237126</v>
+        <v>0.061173</v>
       </c>
       <c r="I23">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J23">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,60 +1857,60 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.079042</v>
+        <v>6.316491333333334</v>
       </c>
       <c r="N23">
-        <v>6.237126</v>
+        <v>18.949474</v>
       </c>
       <c r="O23">
-        <v>0.1580238144196896</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="P23">
-        <v>0.1580238144196896</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="Q23">
-        <v>4.322415637763999</v>
+        <v>0.128799574778</v>
       </c>
       <c r="R23">
-        <v>38.901740739876</v>
+        <v>1.159196173002</v>
       </c>
       <c r="S23">
-        <v>0.02497152592374849</v>
+        <v>0.00125263561867558</v>
       </c>
       <c r="T23">
-        <v>0.0249715259237485</v>
+        <v>0.00125263561867558</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>2.079042</v>
+        <v>0.020391</v>
       </c>
       <c r="H24">
-        <v>6.237126</v>
+        <v>0.061173</v>
       </c>
       <c r="I24">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J24">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,60 +1919,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.020391</v>
+        <v>0.013972</v>
       </c>
       <c r="N24">
-        <v>0.06117300000000001</v>
+        <v>0.041916</v>
       </c>
       <c r="O24">
-        <v>0.001549879030741991</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="P24">
-        <v>0.001549879030741991</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="Q24">
-        <v>0.042393745422</v>
+        <v>0.000284903052</v>
       </c>
       <c r="R24">
-        <v>0.381543708798</v>
+        <v>0.002564127468</v>
       </c>
       <c r="S24">
-        <v>0.0002449177963269407</v>
+        <v>2.770814355712755E-06</v>
       </c>
       <c r="T24">
-        <v>0.0002449177963269408</v>
+        <v>2.770814355712755E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>2.079042</v>
+        <v>0.020391</v>
       </c>
       <c r="H25">
-        <v>6.237126</v>
+        <v>0.061173</v>
       </c>
       <c r="I25">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J25">
-        <v>0.1580238144196896</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5460566666666667</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="N25">
-        <v>1.63817</v>
+        <v>4.540466</v>
       </c>
       <c r="O25">
-        <v>0.0415046725154988</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="P25">
-        <v>0.0415046725154988</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="Q25">
-        <v>1.13527474438</v>
+        <v>0.030861547402</v>
       </c>
       <c r="R25">
-        <v>10.21747269942</v>
+        <v>0.277753926618</v>
       </c>
       <c r="S25">
-        <v>0.006558726667139172</v>
+        <v>0.0003001428660756196</v>
       </c>
       <c r="T25">
-        <v>0.006558726667139173</v>
+        <v>0.0003001428660756197</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,13 +2010,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2031,725 +2028,43 @@
         <v>0.020391</v>
       </c>
       <c r="H26">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="I26">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J26">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>4.179958</v>
+        <v>0.020391</v>
       </c>
       <c r="N26">
-        <v>12.539874</v>
+        <v>0.061173</v>
       </c>
       <c r="O26">
-        <v>0.3177102277270478</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="P26">
-        <v>0.3177102277270478</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="Q26">
-        <v>0.08523352357800001</v>
+        <v>0.000415792881</v>
       </c>
       <c r="R26">
-        <v>0.7671017122020001</v>
+        <v>0.003742135929</v>
       </c>
       <c r="S26">
-        <v>0.000492412419806414</v>
+        <v>4.043778666428485E-06</v>
       </c>
       <c r="T26">
-        <v>0.000492412419806414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.020391</v>
-      </c>
-      <c r="H27">
-        <v>0.06117300000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="J27">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>6.316491333333334</v>
-      </c>
-      <c r="N27">
-        <v>18.949474</v>
-      </c>
-      <c r="O27">
-        <v>0.4801038431365237</v>
-      </c>
-      <c r="P27">
-        <v>0.4801038431365237</v>
-      </c>
-      <c r="Q27">
-        <v>0.128799574778</v>
-      </c>
-      <c r="R27">
-        <v>1.159196173002</v>
-      </c>
-      <c r="S27">
-        <v>0.0007441028790559402</v>
-      </c>
-      <c r="T27">
-        <v>0.0007441028790559402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.020391</v>
-      </c>
-      <c r="H28">
-        <v>0.06117300000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="J28">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.01457166666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.043715</v>
-      </c>
-      <c r="O28">
-        <v>0.001107563170498196</v>
-      </c>
-      <c r="P28">
-        <v>0.001107563170498196</v>
-      </c>
-      <c r="Q28">
-        <v>0.000297130855</v>
-      </c>
-      <c r="R28">
-        <v>0.002674177695</v>
-      </c>
-      <c r="S28">
-        <v>1.71658893317727E-06</v>
-      </c>
-      <c r="T28">
-        <v>1.71658893317727E-06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.020391</v>
-      </c>
-      <c r="H29">
-        <v>0.06117300000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="J29">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.079042</v>
-      </c>
-      <c r="N29">
-        <v>6.237126</v>
-      </c>
-      <c r="O29">
-        <v>0.1580238144196896</v>
-      </c>
-      <c r="P29">
-        <v>0.1580238144196896</v>
-      </c>
-      <c r="Q29">
-        <v>0.042393745422</v>
-      </c>
-      <c r="R29">
-        <v>0.381543708798</v>
-      </c>
-      <c r="S29">
-        <v>0.0002449177963269407</v>
-      </c>
-      <c r="T29">
-        <v>0.0002449177963269408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.020391</v>
-      </c>
-      <c r="H30">
-        <v>0.06117300000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="J30">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.020391</v>
-      </c>
-      <c r="N30">
-        <v>0.06117300000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="P30">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="Q30">
-        <v>0.0004157928810000001</v>
-      </c>
-      <c r="R30">
-        <v>0.003742135929000001</v>
-      </c>
-      <c r="S30">
-        <v>2.402125009933734E-06</v>
-      </c>
-      <c r="T30">
-        <v>2.402125009933734E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.020391</v>
-      </c>
-      <c r="H31">
-        <v>0.06117300000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="J31">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="N31">
-        <v>1.63817</v>
-      </c>
-      <c r="O31">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="P31">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="Q31">
-        <v>0.01113464149</v>
-      </c>
-      <c r="R31">
-        <v>0.10021177341</v>
-      </c>
-      <c r="S31">
-        <v>6.432722160958504E-05</v>
-      </c>
-      <c r="T31">
-        <v>6.432722160958504E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.63817</v>
-      </c>
-      <c r="I32">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J32">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>4.179958</v>
-      </c>
-      <c r="N32">
-        <v>12.539874</v>
-      </c>
-      <c r="O32">
-        <v>0.3177102277270478</v>
-      </c>
-      <c r="P32">
-        <v>0.3177102277270478</v>
-      </c>
-      <c r="Q32">
-        <v>2.282493932286667</v>
-      </c>
-      <c r="R32">
-        <v>20.54244539058</v>
-      </c>
-      <c r="S32">
-        <v>0.01318645895663566</v>
-      </c>
-      <c r="T32">
-        <v>0.01318645895663566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.63817</v>
-      </c>
-      <c r="I33">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J33">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>6.316491333333334</v>
-      </c>
-      <c r="N33">
-        <v>18.949474</v>
-      </c>
-      <c r="O33">
-        <v>0.4801038431365237</v>
-      </c>
-      <c r="P33">
-        <v>0.4801038431365237</v>
-      </c>
-      <c r="Q33">
-        <v>3.44916220250889</v>
-      </c>
-      <c r="R33">
-        <v>31.04245982258001</v>
-      </c>
-      <c r="S33">
-        <v>0.01992655278281382</v>
-      </c>
-      <c r="T33">
-        <v>0.01992655278281382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.63817</v>
-      </c>
-      <c r="I34">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J34">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01457166666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.043715</v>
-      </c>
-      <c r="O34">
-        <v>0.001107563170498196</v>
-      </c>
-      <c r="P34">
-        <v>0.001107563170498196</v>
-      </c>
-      <c r="Q34">
-        <v>0.007956955727777777</v>
-      </c>
-      <c r="R34">
-        <v>0.07161260155</v>
-      </c>
-      <c r="S34">
-        <v>4.596904668175517E-05</v>
-      </c>
-      <c r="T34">
-        <v>4.596904668175517E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.63817</v>
-      </c>
-      <c r="I35">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J35">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>2.079042</v>
-      </c>
-      <c r="N35">
-        <v>6.237126</v>
-      </c>
-      <c r="O35">
-        <v>0.1580238144196896</v>
-      </c>
-      <c r="P35">
-        <v>0.1580238144196896</v>
-      </c>
-      <c r="Q35">
-        <v>1.13527474438</v>
-      </c>
-      <c r="R35">
-        <v>10.21747269942</v>
-      </c>
-      <c r="S35">
-        <v>0.006558726667139172</v>
-      </c>
-      <c r="T35">
-        <v>0.006558726667139173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.63817</v>
-      </c>
-      <c r="I36">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J36">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.020391</v>
-      </c>
-      <c r="N36">
-        <v>0.06117300000000001</v>
-      </c>
-      <c r="O36">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="P36">
-        <v>0.001549879030741991</v>
-      </c>
-      <c r="Q36">
-        <v>0.01113464149</v>
-      </c>
-      <c r="R36">
-        <v>0.10021177341</v>
-      </c>
-      <c r="S36">
-        <v>6.432722160958504E-05</v>
-      </c>
-      <c r="T36">
-        <v>6.432722160958504E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.63817</v>
-      </c>
-      <c r="I37">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J37">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="N37">
-        <v>1.63817</v>
-      </c>
-      <c r="O37">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="P37">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="Q37">
-        <v>0.2981778832111112</v>
-      </c>
-      <c r="R37">
-        <v>2.683600948900001</v>
-      </c>
-      <c r="S37">
-        <v>0.001722637840618801</v>
-      </c>
-      <c r="T37">
-        <v>0.001722637840618801</v>
+        <v>4.043778666428485E-06</v>
       </c>
     </row>
   </sheetData>
